--- a/src/FinanceUniversityData.xlsx
+++ b/src/FinanceUniversityData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sorako/Desktop/MaCuDe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EBAA99-B58F-8147-A7B1-E37D9808E315}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1819B216-586C-5946-B597-FAB648C62FD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8860" yWindow="540" windowWidth="15960" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8860" yWindow="460" windowWidth="15960" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UniversityData" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="274">
   <si>
     <t>Sl No</t>
   </si>
@@ -640,6 +640,219 @@
   </si>
   <si>
     <t xml:space="preserve">  Independent Study Projects require extensive independent work and a considerable amount of writing. ISP in Finance are intended to give students the opportunity to study a particular topic in Finance in greater depth than is covered in the curriculum. The application for ISP's should outline a plan of study that requires at least as much work as a typical course in the Finance Department that meets twice a week. Applications for FNCE 899 ISP's will not be accepted after the THIRD WEEK OF THE SEMESTER. ISP's must be supervised by a Standing Faculty member of the Finance Department.</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/advanced-valuation-6383</t>
+  </si>
+  <si>
+    <t>University of Michigan--Ann Arbor</t>
+  </si>
+  <si>
+    <t>body field</t>
+  </si>
+  <si>
+    <t>FIN 645</t>
+  </si>
+  <si>
+    <t>Advanced Valuation</t>
+  </si>
+  <si>
+    <t>FIN 865</t>
+  </si>
+  <si>
+    <t>Asymmetric Information</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/asymmetric-information-9364</t>
+  </si>
+  <si>
+    <t>FIN 422</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/behavioral-finance-11462</t>
+  </si>
+  <si>
+    <t>FIN 342</t>
+  </si>
+  <si>
+    <t>Big Data in Finance</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/big-data-finance-11342</t>
+  </si>
+  <si>
+    <t>FIN 408</t>
+  </si>
+  <si>
+    <t>FIN 608</t>
+  </si>
+  <si>
+    <t>FIN 330</t>
+  </si>
+  <si>
+    <t>FIN 321</t>
+  </si>
+  <si>
+    <t>FIN 872</t>
+  </si>
+  <si>
+    <t>FIN 871</t>
+  </si>
+  <si>
+    <t>FIN 621</t>
+  </si>
+  <si>
+    <t>FIN 647</t>
+  </si>
+  <si>
+    <t>FIN 317</t>
+  </si>
+  <si>
+    <t>FIN 415</t>
+  </si>
+  <si>
+    <t>FIN 995</t>
+  </si>
+  <si>
+    <t>FIN 990</t>
+  </si>
+  <si>
+    <t>FIN 873</t>
+  </si>
+  <si>
+    <t>FIN 875</t>
+  </si>
+  <si>
+    <t>FIN 583</t>
+  </si>
+  <si>
+    <t>FIN 425</t>
+  </si>
+  <si>
+    <t>FIN 637</t>
+  </si>
+  <si>
+    <t>FIN 513</t>
+  </si>
+  <si>
+    <t>FIN 580</t>
+  </si>
+  <si>
+    <t>FIN 557</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/financial-management-9782</t>
+  </si>
+  <si>
+    <t>Financial Management</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/financial-derivatives-corporate-finance-managing-risk-and-creating-value-2079</t>
+  </si>
+  <si>
+    <t>Financial Derivatives in Corporate Finance: Managing Risk and Creating Value</t>
+  </si>
+  <si>
+    <t>Financial Analysis</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/financial-analysis-6380</t>
+  </si>
+  <si>
+    <t>Finance and the Sustainable Enterprise</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/finance-and-sustainable-enterprise-6660</t>
+  </si>
+  <si>
+    <t>Entrepreneurial Finance</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/entrepreneurial-finance-9863</t>
+  </si>
+  <si>
+    <t>Energy Project Finance</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/energy-project-finance-9645</t>
+  </si>
+  <si>
+    <t>Empirical Methodology in Finance</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/empirical-methodology-finance-5520</t>
+  </si>
+  <si>
+    <t>Dynamic Models and Structural Estimation in Corporate Finance</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/dynamic-models-and-structural-estimation-corporate-finance-11182</t>
+  </si>
+  <si>
+    <t>Dissertation - Precandidacy</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/dissertation-precandidacy-6759</t>
+  </si>
+  <si>
+    <t>Dissertation - Candidacy</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/dissertation-candidacy-6766</t>
+  </si>
+  <si>
+    <t>Corporate Investment Decisions</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/corporate-investment-decisions-9862</t>
+  </si>
+  <si>
+    <t>Corporate Financing Decisions</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/corporate-financing-decisions-2825</t>
+  </si>
+  <si>
+    <t>Corporate Financial Strategy</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/corporate-financial-strategy-2837</t>
+  </si>
+  <si>
+    <t>Corporate Financial Policy</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/corporate-financial-policy-4061</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/corporate-finance-5380</t>
+  </si>
+  <si>
+    <t>Continuous-Time Asset Pricing</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/continuous-time-asset-pricing-5420</t>
+  </si>
+  <si>
+    <t>Commercial Real Estate Finance</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/commercial-real-estate-finance-8803</t>
+  </si>
+  <si>
+    <t>Challenges in Emerging Market Finance: Argentina as a Case Study</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/challenges-emerging-market-finance-argentina-case-study-11283</t>
+  </si>
+  <si>
+    <t>Capital Markets and Investment Strategy</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/capital-markets-and-investment-strategy-2831</t>
+  </si>
+  <si>
+    <t>https://michiganross.umich.edu/courses/capital-markets-and-investment-strategy-9864</t>
   </si>
 </sst>
 </file>
@@ -712,7 +925,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -797,36 +1010,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="17"/>
       </left>
       <right style="thin">
@@ -846,7 +1029,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -868,18 +1051,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2043,13 +2220,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV23"/>
+  <dimension ref="A1:IV39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:H15"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2100,7 +2277,7 @@
       <c r="A2" s="3">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2109,31 +2286,31 @@
       <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2142,31 +2319,31 @@
       <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2175,31 +2352,31 @@
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>34903</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2208,31 +2385,31 @@
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="H5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2241,31 +2418,31 @@
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <v>35001</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="14" t="s">
+      <c r="H6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -2274,31 +2451,31 @@
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2307,31 +2484,31 @@
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>35200</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="14" t="s">
+      <c r="H8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -2340,31 +2517,31 @@
       <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>35210</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="14" t="s">
+      <c r="H9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -2373,31 +2550,31 @@
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="12">
         <v>35213</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -2406,31 +2583,31 @@
       <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>35215</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="14" t="s">
+      <c r="H11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -2439,31 +2616,31 @@
       <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <v>35600</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="14" t="s">
+      <c r="H12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -2472,31 +2649,31 @@
       <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <v>35906</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="14" t="s">
+      <c r="H13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -2505,31 +2682,31 @@
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <v>35908</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="14" t="s">
+      <c r="H14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -2538,131 +2715,821 @@
       <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="12">
         <v>35916</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="14" t="s">
+      <c r="H15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="B17" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="B18" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="B19" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="B20" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="B21" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="B22" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="B23" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="B37" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="B38" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="B39" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2679,6 +3546,30 @@
     <hyperlink ref="G14" r:id="rId11" display="https://intranet.chicagobooth.edu/pub/coursesearch/CourseDetail?IsXPSearch=False&amp;AcademicYear=2020&amp;CourseNumber=35908" xr:uid="{A319120C-58A4-F94A-BB34-90A560781A27}"/>
     <hyperlink ref="G15" r:id="rId12" display="https://intranet.chicagobooth.edu/pub/coursesearch/CourseDetail?IsXPSearch=False&amp;AcademicYear=2020&amp;CourseNumber=35916" xr:uid="{7D20172E-429D-124B-A0A1-4A1F0FF1162D}"/>
     <hyperlink ref="I15" r:id="rId13" xr:uid="{281FB213-BBA1-BE4F-B2F6-358997F0BA3E}"/>
+    <hyperlink ref="G16" r:id="rId14" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{512EA08D-5B70-0047-A2B9-B9AA65DFFE7C}"/>
+    <hyperlink ref="G17" r:id="rId15" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{BDEBCE0D-B3CB-AC42-9E65-4C3F1F8FF6AD}"/>
+    <hyperlink ref="G18" r:id="rId16" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{91F7401E-F336-FF43-A73F-282BC6A20F7B}"/>
+    <hyperlink ref="G19" r:id="rId17" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{BB30C54C-1F49-E943-BF96-DCF5F2EF9B5C}"/>
+    <hyperlink ref="G39" r:id="rId18" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{AF49779B-1B83-1343-BDCB-A1B17DF9B14C}"/>
+    <hyperlink ref="G38" r:id="rId19" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{30F2B8B5-FE94-DB4A-8B37-1282493DA10E}"/>
+    <hyperlink ref="G37" r:id="rId20" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{3BE0F6E6-305A-FC4B-AA66-C4CECB8B23F2}"/>
+    <hyperlink ref="G36" r:id="rId21" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{5E3D961E-54BB-2E4B-BB5E-600287A78CCC}"/>
+    <hyperlink ref="G35" r:id="rId22" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{E791DD0D-C34E-9540-8AE2-DFA8F48385F6}"/>
+    <hyperlink ref="G34" r:id="rId23" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{79D52C1B-AB11-4043-8B74-40E0E3AED49F}"/>
+    <hyperlink ref="G33" r:id="rId24" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{1D28D54E-9C38-C94B-A80B-5D74B8CFCAE3}"/>
+    <hyperlink ref="G32" r:id="rId25" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{9CF990AD-6A36-AC41-A790-51ECFF218BFB}"/>
+    <hyperlink ref="G31" r:id="rId26" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{ADCE5C37-EBEE-0848-8988-3F321AC69AB6}"/>
+    <hyperlink ref="G30" r:id="rId27" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{BC036721-9302-CE42-88CD-63105C75E93C}"/>
+    <hyperlink ref="G29" r:id="rId28" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{7471103C-280D-7543-85FD-A9196FC37B49}"/>
+    <hyperlink ref="G28" r:id="rId29" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{2EB239B5-64C6-CB4A-BFBE-EE60310A7AC0}"/>
+    <hyperlink ref="G27" r:id="rId30" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{F10E6CB7-66D4-DD4C-920F-3918D27610DB}"/>
+    <hyperlink ref="G26" r:id="rId31" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{3185E177-312E-154E-B5AF-98A292CB136F}"/>
+    <hyperlink ref="G25" r:id="rId32" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{19E8D257-DD06-5149-8732-CA553A0B7450}"/>
+    <hyperlink ref="G24" r:id="rId33" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{B4D49678-FE05-A448-B515-253E747C342F}"/>
+    <hyperlink ref="G23" r:id="rId34" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{D8C1731E-D473-1046-AE35-2DB62791BB5E}"/>
+    <hyperlink ref="G22" r:id="rId35" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{994DD630-9545-9546-8134-652C09F7F826}"/>
+    <hyperlink ref="G21" r:id="rId36" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{D9C18554-EBD2-1E48-B300-BFAA659850B6}"/>
+    <hyperlink ref="G20" r:id="rId37" display="https://michiganross.umich.edu/course-catalog?area=Finance&amp;type=All&amp;term=All" xr:uid="{0B312C01-472F-F04D-A2E6-032010A7CEBC}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
@@ -2692,8 +3583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F147175-7057-5A49-9439-F0308AD180C5}">
   <dimension ref="A1:IV40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4380,189 +5271,189 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16" style="9" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="9" customWidth="1"/>
-    <col min="5" max="256" width="10.83203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16" style="7" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="7" customWidth="1"/>
+    <col min="5" max="256" width="10.83203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
